--- a/Documentacion/Flujo_MascotaFeliz.xlsx
+++ b/Documentacion/Flujo_MascotaFeliz.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mascotas\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0213B916-A667-41B2-818B-0A20DE5FDA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B7319-C196-4766-85B1-D6D850BAC591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE8C2ED5-F27C-412A-943D-5492EC180497}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{DE8C2ED5-F27C-412A-943D-5492EC180497}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tareas" sheetId="1" r:id="rId1"/>
+    <sheet name="Tareas" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Inicio" sheetId="8" r:id="rId2"/>
     <sheet name="Mascota" sheetId="2" r:id="rId3"/>
     <sheet name="Propíetario" sheetId="3" r:id="rId4"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>Tarea</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Estado de Animo</t>
+  </si>
+  <si>
+    <t>CONSULTA MASCOTA FELIZ</t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -338,11 +341,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,6 +405,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,11 +434,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,16 +692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>732127</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>744538</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -692,8 +716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="1790700"/>
-          <a:ext cx="579727" cy="238125"/>
+          <a:off x="1303338" y="1790701"/>
+          <a:ext cx="560388" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -726,140 +750,6 @@
           <a:r>
             <a:rPr lang="es-MX" sz="1000" b="1"/>
             <a:t>CREAR</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>103477</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo: esquinas redondeadas 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C914AFD9-A06D-402E-ABA7-1460756E2FF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="865477" y="1790700"/>
-          <a:ext cx="925223" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="AA5E80"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1000" b="1"/>
-            <a:t>ACTUALIZAR</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>246352</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo: esquinas redondeadas 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2524D8B-DB89-492C-8E81-5698BB2A9CF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1932277" y="1790700"/>
-          <a:ext cx="791873" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="AA5E80"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1000" b="1"/>
-            <a:t>ELIMINAR</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
         </a:p>
@@ -899,9 +789,6 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="AA5E80"/>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -929,6 +816,200 @@
             <a:t>CONSULTAR</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo: esquinas redondeadas 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2F6CAE-E920-4342-B5C7-BAADAC7D4544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763289" y="1766887"/>
+          <a:ext cx="872836" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AA5E80"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000" b="1"/>
+            <a:t>ACTUALIZAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389226</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>36513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84138</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo: esquinas redondeadas 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248A5E58-6A50-48B4-98A8-1728FC7B48CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8152101" y="1751013"/>
+          <a:ext cx="737899" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="AA5E80"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1000" b="1"/>
+            <a:t>ELIMINAR</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441326</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Flecha: a la derecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE8032A-D7FC-82AC-6C4D-C2FBA945E47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4270376" y="841375"/>
+          <a:ext cx="719138" cy="492125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CO" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2310,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9047AFB3-76D5-4914-807B-6D06D0E1C317}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,19 +2465,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="25">
         <v>44812</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2435,13 +2516,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -2468,45 +2549,45 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,6 +2606,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:E1"/>
@@ -2532,12 +2619,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2546,30 +2627,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C380F94-E7C7-4B9A-B665-0534299509E4}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="H1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
@@ -2585,89 +2683,185 @@
       <c r="E2" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="H4" s="12"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="L5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="12"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="12"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="18">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="H1:O1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C4:D4"/>
@@ -2676,6 +2870,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2688,7 +2887,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,13 +2899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2733,57 +2932,57 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2802,6 +3001,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:E1"/>
@@ -2809,12 +3014,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2838,13 +3037,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -2871,57 +3070,57 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2940,6 +3139,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:E1"/>
@@ -2947,12 +3152,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2975,13 +3174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -3008,57 +3207,57 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,6 +3276,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:E1"/>
@@ -3084,12 +3289,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
